--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8686949999999999</v>
+        <v>0.6746743333333334</v>
       </c>
       <c r="N2">
-        <v>2.606085</v>
+        <v>2.024023</v>
       </c>
       <c r="O2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="P2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="Q2">
-        <v>0.8953494582499998</v>
+        <v>0.6953755907944446</v>
       </c>
       <c r="R2">
-        <v>8.058145124249998</v>
+        <v>6.25838031715</v>
       </c>
       <c r="S2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
       <c r="T2">
-        <v>0.08920595562802247</v>
+        <v>0.07069047851636343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>13.435647</v>
       </c>
       <c r="O3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600617</v>
       </c>
       <c r="P3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600616</v>
       </c>
       <c r="Q3">
-        <v>4.615965811816666</v>
+        <v>4.615965811816667</v>
       </c>
       <c r="R3">
-        <v>41.54369230634999</v>
+        <v>41.54369230635</v>
       </c>
       <c r="S3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600617</v>
       </c>
       <c r="T3">
-        <v>0.4599004752783479</v>
+        <v>0.4692497642600616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>13.172517</v>
       </c>
       <c r="O4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="P4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="Q4">
-        <v>4.525564576649999</v>
+        <v>4.52556457665</v>
       </c>
       <c r="R4">
-        <v>40.73008118984999</v>
+        <v>40.73008118985</v>
       </c>
       <c r="S4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
       <c r="T4">
-        <v>0.4508935690936296</v>
+        <v>0.460059757223575</v>
       </c>
     </row>
   </sheetData>
